--- a/data1.xlsx
+++ b/data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\bottleneck_detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD29E3C9-4690-449D-AE5B-17D3961A4659}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{229474A5-31E6-42CC-8426-03F74323DA68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-2865" windowWidth="29040" windowHeight="15840" xr2:uid="{841525BC-2D44-4319-995E-2A0AD6176342}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{841525BC-2D44-4319-995E-2A0AD6176342}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,20 +19,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$F$344</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$I$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$A$40</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -56,76 +48,157 @@
   <commentList>
     <comment ref="F8" authorId="0" shapeId="0" xr:uid="{D6268C31-560B-4405-8F25-7B1972376B2A}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Randy Evans (unknown)
 Matt Postma (MSU)
 Terry Cleis (PBA)</t>
+        </r>
       </text>
     </comment>
     <comment ref="B13" authorId="1" shapeId="0" xr:uid="{4A7B25CD-2F79-45FF-9F5A-D03448E504A3}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Mentioned in cell C21</t>
+        </r>
       </text>
     </comment>
     <comment ref="E14" authorId="2" shapeId="0" xr:uid="{4E70234A-49BD-4680-BBE8-FF3FF77A808D}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     double check dates</t>
+        </r>
       </text>
     </comment>
     <comment ref="B28" authorId="3" shapeId="0" xr:uid="{7E1283FF-7328-4553-A046-E51941DCF8ED}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Bulletin #2 mentioned in cell C13</t>
+        </r>
       </text>
     </comment>
     <comment ref="A39" authorId="4" shapeId="0" xr:uid="{01789902-7936-48AC-AF71-A0DFA446AD1B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Arbitrary transition from GC to O (no details given)</t>
+        </r>
       </text>
     </comment>
     <comment ref="F55" authorId="5" shapeId="0" xr:uid="{21098B87-91AB-46DD-A6E0-F0C8869E698B}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     "Matt" listed as responsible, which matt?</t>
+        </r>
       </text>
     </comment>
     <comment ref="F68" authorId="6" shapeId="0" xr:uid="{E7004963-3B77-4527-9E16-5D23DAD0265E}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     douglas steel providing price per Designer standard</t>
+        </r>
       </text>
     </comment>
     <comment ref="M141" authorId="7" shapeId="0" xr:uid="{F5796227-4FC1-40F5-A511-E881B7DCE73E}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     format of submittals changed 8/21 - now assigned numbers to each line item</t>
+        </r>
       </text>
     </comment>
     <comment ref="B218" authorId="8" shapeId="0" xr:uid="{A870BCF3-6CB7-4785-BA72-9D32E8FB6901}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Mentioned in Cell C212</t>
+        </r>
       </text>
     </comment>
     <comment ref="B227" authorId="9" shapeId="0" xr:uid="{41B4F353-A579-4909-B18F-7F7396E1E7B2}">
@@ -155,10 +228,19 @@
     </comment>
     <comment ref="B255" authorId="10" shapeId="0" xr:uid="{5CDE5061-A9E3-4BAB-9B92-0A48D738F2B4}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     format of submittals changed 8/21 - now assigned numbers to each line item</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -177,34 +259,70 @@
   <commentList>
     <comment ref="C4" authorId="0" shapeId="0" xr:uid="{26C33567-3E79-4624-A5EE-FE0D4088ED21}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Mentioned in cell C21</t>
+        </r>
       </text>
     </comment>
     <comment ref="B9" authorId="1" shapeId="0" xr:uid="{994B0318-CBDF-4F17-B321-135B711955DE}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Bulletin #2 mentioned in cell C13</t>
+        </r>
       </text>
     </comment>
     <comment ref="A66" authorId="2" shapeId="0" xr:uid="{1CC0CC24-F67E-4EA7-84FD-152A337BC20C}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     format of submittals changed 8/21 - now assigned numbers to each line item</t>
+        </r>
       </text>
     </comment>
     <comment ref="C102" authorId="3" shapeId="0" xr:uid="{E44773A2-E625-4DCC-9533-D1CFF85F29D1}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Mentioned in Cell C212</t>
+        </r>
       </text>
     </comment>
     <comment ref="C105" authorId="4" shapeId="0" xr:uid="{59906EA5-ABFA-4E13-93BD-0279230CBA64}">
@@ -237,7 +355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="694">
   <si>
     <t>Item Code</t>
   </si>
@@ -2297,9 +2415,6 @@
     <t>Pooled</t>
   </si>
   <si>
-    <t>Recirpocal</t>
-  </si>
-  <si>
     <t>Intensive</t>
   </si>
   <si>
@@ -2316,13 +2431,19 @@
   </si>
   <si>
     <t>DV= (Information at Date X- Information at Date Y)/ Days in between</t>
+  </si>
+  <si>
+    <t>Reciprocal</t>
+  </si>
+  <si>
+    <t>̥</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2370,12 +2491,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -2628,10 +2743,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3121,7 +3236,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:S346"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J222" sqref="J222"/>
     </sheetView>
   </sheetViews>
@@ -3271,7 +3386,7 @@
         <v>43488</v>
       </c>
       <c r="D7" s="15">
-        <f>C7+E7</f>
+        <f t="shared" ref="D7:D70" si="0">C7+E7</f>
         <v>43509</v>
       </c>
       <c r="E7" s="1">
@@ -3293,7 +3408,7 @@
         <v>43488</v>
       </c>
       <c r="D8" s="15">
-        <f>C8+E8</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E8" s="1">
@@ -3314,7 +3429,7 @@
         <v>43488</v>
       </c>
       <c r="D9" s="15">
-        <f>C9+E9</f>
+        <f t="shared" si="0"/>
         <v>43529</v>
       </c>
       <c r="E9" s="1">
@@ -3335,7 +3450,7 @@
         <v>43488</v>
       </c>
       <c r="D10" s="15">
-        <f>C10+E10</f>
+        <f t="shared" si="0"/>
         <v>43507</v>
       </c>
       <c r="E10" s="1">
@@ -3356,7 +3471,7 @@
         <v>43488</v>
       </c>
       <c r="D11" s="15">
-        <f>C11+E11</f>
+        <f t="shared" si="0"/>
         <v>43489</v>
       </c>
       <c r="E11" s="1">
@@ -3377,7 +3492,7 @@
         <v>43488</v>
       </c>
       <c r="D12" s="15">
-        <f>C12+E12</f>
+        <f t="shared" si="0"/>
         <v>43489</v>
       </c>
       <c r="E12" s="1">
@@ -3398,7 +3513,7 @@
         <v>43488</v>
       </c>
       <c r="D13" s="15">
-        <f>C13+E13</f>
+        <f t="shared" si="0"/>
         <v>43551</v>
       </c>
       <c r="E13" s="1">
@@ -3420,7 +3535,7 @@
         <v>43488</v>
       </c>
       <c r="D14" s="15">
-        <f>C14+E14</f>
+        <f t="shared" si="0"/>
         <v>43490</v>
       </c>
       <c r="E14" s="11">
@@ -3442,7 +3557,7 @@
         <v>43488</v>
       </c>
       <c r="D15" s="15">
-        <f>C15+E15</f>
+        <f t="shared" si="0"/>
         <v>43489</v>
       </c>
       <c r="E15" s="1">
@@ -3463,7 +3578,7 @@
         <v>43488</v>
       </c>
       <c r="D16" s="15">
-        <f>C16+E16</f>
+        <f t="shared" si="0"/>
         <v>43489</v>
       </c>
       <c r="E16" s="1">
@@ -3484,7 +3599,7 @@
         <v>43488</v>
       </c>
       <c r="D17" s="15">
-        <f>C17+E17</f>
+        <f t="shared" si="0"/>
         <v>43489</v>
       </c>
       <c r="E17" s="1">
@@ -3505,7 +3620,7 @@
         <v>43488</v>
       </c>
       <c r="D18" s="15">
-        <f>C18+E18</f>
+        <f t="shared" si="0"/>
         <v>43489</v>
       </c>
       <c r="E18" s="1">
@@ -3526,7 +3641,7 @@
         <v>43488</v>
       </c>
       <c r="D19" s="15">
-        <f>C19+E19</f>
+        <f t="shared" si="0"/>
         <v>43489</v>
       </c>
       <c r="E19" s="1">
@@ -3547,7 +3662,7 @@
         <v>43507</v>
       </c>
       <c r="D20" s="15">
-        <f>C20+E20</f>
+        <f t="shared" si="0"/>
         <v>43508</v>
       </c>
       <c r="E20" s="1">
@@ -3568,7 +3683,7 @@
         <v>43507</v>
       </c>
       <c r="D21" s="15">
-        <f>C21+E21</f>
+        <f t="shared" si="0"/>
         <v>43537</v>
       </c>
       <c r="E21" s="1">
@@ -3589,7 +3704,7 @@
         <v>43507</v>
       </c>
       <c r="D22" s="15">
-        <f>C22+E22</f>
+        <f t="shared" si="0"/>
         <v>43551</v>
       </c>
       <c r="E22" s="11">
@@ -3610,7 +3725,7 @@
         <v>43507</v>
       </c>
       <c r="D23" s="15">
-        <f>C23+E23</f>
+        <f t="shared" si="0"/>
         <v>43537</v>
       </c>
       <c r="E23" s="1">
@@ -3631,7 +3746,7 @@
         <v>43507</v>
       </c>
       <c r="D24" s="15">
-        <f>C24+E24</f>
+        <f t="shared" si="0"/>
         <v>43521</v>
       </c>
       <c r="E24" s="1">
@@ -3652,7 +3767,7 @@
         <v>43507</v>
       </c>
       <c r="D25" s="15">
-        <f>C25+E25</f>
+        <f t="shared" si="0"/>
         <v>43544</v>
       </c>
       <c r="E25" s="11">
@@ -3673,7 +3788,7 @@
         <v>43507</v>
       </c>
       <c r="D26" s="15">
-        <f>C26+E26</f>
+        <f t="shared" si="0"/>
         <v>43544</v>
       </c>
       <c r="E26" s="1">
@@ -3694,7 +3809,7 @@
         <v>43507</v>
       </c>
       <c r="D27" s="15">
-        <f>C27+E27</f>
+        <f t="shared" si="0"/>
         <v>43521</v>
       </c>
       <c r="E27" s="1">
@@ -3715,7 +3830,7 @@
         <v>43507</v>
       </c>
       <c r="D28" s="15">
-        <f>C28+E28</f>
+        <f t="shared" si="0"/>
         <v>43524</v>
       </c>
       <c r="E28" s="1">
@@ -3736,7 +3851,7 @@
         <v>43507</v>
       </c>
       <c r="D29" s="15">
-        <f>C29+E29</f>
+        <f t="shared" si="0"/>
         <v>43508</v>
       </c>
       <c r="E29" s="1">
@@ -3757,7 +3872,7 @@
         <v>43507</v>
       </c>
       <c r="D30" s="15">
-        <f>C30+E30</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E30" s="1">
@@ -3778,7 +3893,7 @@
         <v>43507</v>
       </c>
       <c r="D31" s="15">
-        <f>C31+E31</f>
+        <f t="shared" si="0"/>
         <v>43537</v>
       </c>
       <c r="E31" s="1">
@@ -3799,7 +3914,7 @@
         <v>43507</v>
       </c>
       <c r="D32" s="15">
-        <f>C32+E32</f>
+        <f t="shared" si="0"/>
         <v>43508</v>
       </c>
       <c r="E32" s="1">
@@ -3820,7 +3935,7 @@
         <v>43507</v>
       </c>
       <c r="D33" s="15">
-        <f>C33+E33</f>
+        <f t="shared" si="0"/>
         <v>43508</v>
       </c>
       <c r="E33" s="1">
@@ -3841,7 +3956,7 @@
         <v>43507</v>
       </c>
       <c r="D34" s="15">
-        <f>C34+E34</f>
+        <f t="shared" si="0"/>
         <v>43508</v>
       </c>
       <c r="E34" s="1">
@@ -3862,7 +3977,7 @@
         <v>43507</v>
       </c>
       <c r="D35" s="15">
-        <f>C35+E35</f>
+        <f t="shared" si="0"/>
         <v>43508</v>
       </c>
       <c r="E35" s="1">
@@ -3883,7 +3998,7 @@
         <v>43516</v>
       </c>
       <c r="D36" s="15">
-        <f>C36+E36</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E36" s="1">
@@ -3904,7 +4019,7 @@
         <v>43516</v>
       </c>
       <c r="D37" s="15">
-        <f>C37+E37</f>
+        <f t="shared" si="0"/>
         <v>43528</v>
       </c>
       <c r="E37" s="1">
@@ -3925,7 +4040,7 @@
         <v>43516</v>
       </c>
       <c r="D38" s="15">
-        <f>C38+E38</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E38" s="1">
@@ -3946,7 +4061,7 @@
         <v>43516</v>
       </c>
       <c r="D39" s="15">
-        <f>C39+E39</f>
+        <f t="shared" si="0"/>
         <v>43524</v>
       </c>
       <c r="E39" s="11">
@@ -3967,7 +4082,7 @@
         <v>43516</v>
       </c>
       <c r="D40" s="15">
-        <f>C40+E40</f>
+        <f t="shared" si="0"/>
         <v>43520</v>
       </c>
       <c r="E40" s="1">
@@ -3988,7 +4103,7 @@
         <v>43516</v>
       </c>
       <c r="D41" s="15">
-        <f>C41+E41</f>
+        <f t="shared" si="0"/>
         <v>43520</v>
       </c>
       <c r="E41" s="1">
@@ -4009,7 +4124,7 @@
         <v>43516</v>
       </c>
       <c r="D42" s="15">
-        <f>C42+E42</f>
+        <f t="shared" si="0"/>
         <v>43517</v>
       </c>
       <c r="E42" s="1">
@@ -4030,7 +4145,7 @@
         <v>43516</v>
       </c>
       <c r="D43" s="15">
-        <f>C43+E43</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E43" s="1">
@@ -4051,7 +4166,7 @@
         <v>43516</v>
       </c>
       <c r="D44" s="15">
-        <f>C44+E44</f>
+        <f t="shared" si="0"/>
         <v>43551</v>
       </c>
       <c r="E44" s="1">
@@ -4072,7 +4187,7 @@
         <v>43516</v>
       </c>
       <c r="D45" s="15">
-        <f>C45+E45</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E45" s="1">
@@ -4093,7 +4208,7 @@
         <v>43516</v>
       </c>
       <c r="D46" s="15">
-        <f>C46+E46</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E46" s="1">
@@ -4114,7 +4229,7 @@
         <v>43516</v>
       </c>
       <c r="D47" s="15">
-        <f>C47+E47</f>
+        <f t="shared" si="0"/>
         <v>43537</v>
       </c>
       <c r="E47" s="1">
@@ -4135,7 +4250,7 @@
         <v>43516</v>
       </c>
       <c r="D48" s="15">
-        <f>C48+E48</f>
+        <f t="shared" si="0"/>
         <v>43523</v>
       </c>
       <c r="E48" s="1">
@@ -4156,7 +4271,7 @@
         <v>43516</v>
       </c>
       <c r="D49" s="15">
-        <f>C49+E49</f>
+        <f t="shared" si="0"/>
         <v>43551</v>
       </c>
       <c r="E49" s="1">
@@ -4177,7 +4292,7 @@
         <v>43523</v>
       </c>
       <c r="D50" s="15">
-        <f>C50+E50</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E50" s="1">
@@ -4198,7 +4313,7 @@
         <v>43523</v>
       </c>
       <c r="D51" s="15">
-        <f>C51+E51</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E51" s="1">
@@ -4219,7 +4334,7 @@
         <v>43523</v>
       </c>
       <c r="D52" s="15">
-        <f>C52+E52</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E52" s="11">
@@ -4240,7 +4355,7 @@
         <v>43523</v>
       </c>
       <c r="D53" s="15">
-        <f>C53+E53</f>
+        <f t="shared" si="0"/>
         <v>43523</v>
       </c>
       <c r="E53" s="1"/>
@@ -4259,7 +4374,7 @@
         <v>43523</v>
       </c>
       <c r="D54" s="15">
-        <f>C54+E54</f>
+        <f t="shared" si="0"/>
         <v>43523</v>
       </c>
       <c r="E54" s="1"/>
@@ -4278,7 +4393,7 @@
         <v>43523</v>
       </c>
       <c r="D55" s="15">
-        <f>C55+E55</f>
+        <f t="shared" si="0"/>
         <v>43529</v>
       </c>
       <c r="E55" s="10">
@@ -4299,7 +4414,7 @@
         <v>43523</v>
       </c>
       <c r="D56" s="15">
-        <f>C56+E56</f>
+        <f t="shared" si="0"/>
         <v>43529</v>
       </c>
       <c r="E56" s="1">
@@ -4320,7 +4435,7 @@
         <v>43523</v>
       </c>
       <c r="D57" s="15">
-        <f>C57+E57</f>
+        <f t="shared" si="0"/>
         <v>43537</v>
       </c>
       <c r="E57" s="1">
@@ -4341,7 +4456,7 @@
         <v>43523</v>
       </c>
       <c r="D58" s="15">
-        <f>C58+E58</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E58" s="1">
@@ -4362,7 +4477,7 @@
         <v>43523</v>
       </c>
       <c r="D59" s="15">
-        <f>C59+E59</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E59" s="1">
@@ -4383,7 +4498,7 @@
         <v>43523</v>
       </c>
       <c r="D60" s="15">
-        <f>C60+E60</f>
+        <f t="shared" si="0"/>
         <v>43524</v>
       </c>
       <c r="E60" s="1">
@@ -4404,7 +4519,7 @@
         <v>43523</v>
       </c>
       <c r="D61" s="15">
-        <f>C61+E61</f>
+        <f t="shared" si="0"/>
         <v>43530</v>
       </c>
       <c r="E61" s="1">
@@ -4425,7 +4540,7 @@
         <v>43523</v>
       </c>
       <c r="D62" s="15">
-        <f>C62+E62</f>
+        <f t="shared" si="0"/>
         <v>43544</v>
       </c>
       <c r="E62" s="1">
@@ -4446,7 +4561,7 @@
         <v>43523</v>
       </c>
       <c r="D63" s="15">
-        <f>C63+E63</f>
+        <f t="shared" si="0"/>
         <v>43537</v>
       </c>
       <c r="E63" s="1">
@@ -4467,7 +4582,7 @@
         <v>43523</v>
       </c>
       <c r="D64" s="15">
-        <f>C64+E64</f>
+        <f t="shared" si="0"/>
         <v>43551</v>
       </c>
       <c r="E64" s="11">
@@ -4488,7 +4603,7 @@
         <v>43523</v>
       </c>
       <c r="D65" s="15">
-        <f>C65+E65</f>
+        <f t="shared" si="0"/>
         <v>43539</v>
       </c>
       <c r="E65">
@@ -4509,7 +4624,7 @@
         <v>43523</v>
       </c>
       <c r="D66" s="15">
-        <f>C66+E66</f>
+        <f t="shared" si="0"/>
         <v>43533</v>
       </c>
       <c r="E66" s="1">
@@ -4530,7 +4645,7 @@
         <v>43523</v>
       </c>
       <c r="D67" s="15">
-        <f>C67+E67</f>
+        <f t="shared" si="0"/>
         <v>43524</v>
       </c>
       <c r="E67" s="1">
@@ -4551,7 +4666,7 @@
         <v>43530</v>
       </c>
       <c r="D68" s="15">
-        <f>C68+E68</f>
+        <f t="shared" si="0"/>
         <v>43551</v>
       </c>
       <c r="E68" s="1">
@@ -4572,7 +4687,7 @@
         <v>43530</v>
       </c>
       <c r="D69" s="15">
-        <f>C69+E69</f>
+        <f t="shared" si="0"/>
         <v>43531</v>
       </c>
       <c r="E69" s="1">
@@ -4593,7 +4708,7 @@
         <v>43530</v>
       </c>
       <c r="D70" s="15">
-        <f>C70+E70</f>
+        <f t="shared" si="0"/>
         <v>43531</v>
       </c>
       <c r="E70" s="1">
@@ -4614,7 +4729,7 @@
         <v>43537</v>
       </c>
       <c r="D71" s="15">
-        <f>C71+E71</f>
+        <f t="shared" ref="D71:D134" si="1">C71+E71</f>
         <v>43538</v>
       </c>
       <c r="E71" s="1">
@@ -4635,7 +4750,7 @@
         <v>43537</v>
       </c>
       <c r="D72" s="15">
-        <f>C72+E72</f>
+        <f t="shared" si="1"/>
         <v>43538</v>
       </c>
       <c r="E72" s="1">
@@ -4656,7 +4771,7 @@
         <v>43537</v>
       </c>
       <c r="D73" s="15">
-        <f>C73+E73</f>
+        <f t="shared" si="1"/>
         <v>43551</v>
       </c>
       <c r="E73" s="11">
@@ -4677,7 +4792,7 @@
         <v>43537</v>
       </c>
       <c r="D74" s="15">
-        <f>C74+E74</f>
+        <f t="shared" si="1"/>
         <v>43550</v>
       </c>
       <c r="E74" s="1">
@@ -4698,7 +4813,7 @@
         <v>43537</v>
       </c>
       <c r="D75" s="15">
-        <f>C75+E75</f>
+        <f t="shared" si="1"/>
         <v>43543</v>
       </c>
       <c r="E75" s="1">
@@ -4719,7 +4834,7 @@
         <v>43537</v>
       </c>
       <c r="D76" s="15">
-        <f>C76+E76</f>
+        <f t="shared" si="1"/>
         <v>43543</v>
       </c>
       <c r="E76" s="1">
@@ -4740,7 +4855,7 @@
         <v>43537</v>
       </c>
       <c r="D77" s="15">
-        <f>C77+E77</f>
+        <f t="shared" si="1"/>
         <v>43538</v>
       </c>
       <c r="E77" s="1">
@@ -4761,7 +4876,7 @@
         <v>43537</v>
       </c>
       <c r="D78" s="15">
-        <f>C78+E78</f>
+        <f t="shared" si="1"/>
         <v>43544</v>
       </c>
       <c r="E78" s="1">
@@ -4782,7 +4897,7 @@
         <v>43537</v>
       </c>
       <c r="D79" s="15">
-        <f>C79+E79</f>
+        <f t="shared" si="1"/>
         <v>43544</v>
       </c>
       <c r="E79" s="1">
@@ -4803,7 +4918,7 @@
         <v>43537</v>
       </c>
       <c r="D80" s="15">
-        <f>C80+E80</f>
+        <f t="shared" si="1"/>
         <v>43538</v>
       </c>
       <c r="E80" s="1">
@@ -4824,7 +4939,7 @@
         <v>43537</v>
       </c>
       <c r="D81" s="15">
-        <f>C81+E81</f>
+        <f t="shared" si="1"/>
         <v>43538</v>
       </c>
       <c r="E81" s="1">
@@ -4845,7 +4960,7 @@
         <v>43537</v>
       </c>
       <c r="D82" s="15">
-        <f>C82+E82</f>
+        <f t="shared" si="1"/>
         <v>43538</v>
       </c>
       <c r="E82" s="1">
@@ -4866,7 +4981,7 @@
         <v>43537</v>
       </c>
       <c r="D83" s="15">
-        <f>C83+E83</f>
+        <f t="shared" si="1"/>
         <v>43551</v>
       </c>
       <c r="E83" s="11">
@@ -4887,7 +5002,7 @@
         <v>43537</v>
       </c>
       <c r="D84" s="15">
-        <f>C84+E84</f>
+        <f t="shared" si="1"/>
         <v>43550</v>
       </c>
       <c r="E84" s="1">
@@ -4908,7 +5023,7 @@
         <v>43537</v>
       </c>
       <c r="D85" s="15">
-        <f>C85+E85</f>
+        <f t="shared" si="1"/>
         <v>43538</v>
       </c>
       <c r="E85" s="1">
@@ -4929,7 +5044,7 @@
         <v>43537</v>
       </c>
       <c r="D86" s="15">
-        <f>C86+E86</f>
+        <f t="shared" si="1"/>
         <v>43538</v>
       </c>
       <c r="E86" s="1">
@@ -4950,7 +5065,7 @@
         <v>43537</v>
       </c>
       <c r="D87" s="15">
-        <f>C87+E87</f>
+        <f t="shared" si="1"/>
         <v>43538</v>
       </c>
       <c r="E87" s="1">
@@ -4971,7 +5086,7 @@
         <v>43537</v>
       </c>
       <c r="D88" s="15">
-        <f>C88+E88</f>
+        <f t="shared" si="1"/>
         <v>43538</v>
       </c>
       <c r="E88" s="1">
@@ -4992,7 +5107,7 @@
         <v>43537</v>
       </c>
       <c r="D89" s="15">
-        <f>C89+E89</f>
+        <f t="shared" si="1"/>
         <v>43551</v>
       </c>
       <c r="E89" s="1">
@@ -5013,7 +5128,7 @@
         <v>43537</v>
       </c>
       <c r="D90" s="15">
-        <f>C90+E90</f>
+        <f t="shared" si="1"/>
         <v>43538</v>
       </c>
       <c r="E90" s="1">
@@ -5034,7 +5149,7 @@
         <v>43537</v>
       </c>
       <c r="D91" s="15">
-        <f>C91+E91</f>
+        <f t="shared" si="1"/>
         <v>43551</v>
       </c>
       <c r="E91" s="1">
@@ -5055,7 +5170,7 @@
         <v>43537</v>
       </c>
       <c r="D92" s="15">
-        <f>C92+E92</f>
+        <f t="shared" si="1"/>
         <v>43551</v>
       </c>
       <c r="E92" s="1">
@@ -5076,7 +5191,7 @@
         <v>43537</v>
       </c>
       <c r="D93" s="15">
-        <f>C93+E93</f>
+        <f t="shared" si="1"/>
         <v>43544</v>
       </c>
       <c r="E93" s="1">
@@ -5097,7 +5212,7 @@
         <v>43537</v>
       </c>
       <c r="D94" s="15">
-        <f>C94+E94</f>
+        <f t="shared" si="1"/>
         <v>43544</v>
       </c>
       <c r="E94" s="1">
@@ -5118,7 +5233,7 @@
         <v>43537</v>
       </c>
       <c r="D95" s="15">
-        <f>C95+E95</f>
+        <f t="shared" si="1"/>
         <v>43551</v>
       </c>
       <c r="E95" s="1">
@@ -5139,7 +5254,7 @@
         <v>43537</v>
       </c>
       <c r="D96" s="15">
-        <f>C96+E96</f>
+        <f t="shared" si="1"/>
         <v>43551</v>
       </c>
       <c r="E96" s="1">
@@ -5160,7 +5275,7 @@
         <v>43544</v>
       </c>
       <c r="D97" s="15">
-        <f>C97+E97</f>
+        <f t="shared" si="1"/>
         <v>43545</v>
       </c>
       <c r="E97" s="1">
@@ -5181,7 +5296,7 @@
         <v>43544</v>
       </c>
       <c r="D98" s="15">
-        <f>C98+E98</f>
+        <f t="shared" si="1"/>
         <v>43545</v>
       </c>
       <c r="E98" s="1">
@@ -5202,7 +5317,7 @@
         <v>43544</v>
       </c>
       <c r="D99" s="15">
-        <f>C99+E99</f>
+        <f t="shared" si="1"/>
         <v>43545</v>
       </c>
       <c r="E99" s="1">
@@ -5223,7 +5338,7 @@
         <v>43544</v>
       </c>
       <c r="D100" s="15">
-        <f>C100+E100</f>
+        <f t="shared" si="1"/>
         <v>43551</v>
       </c>
       <c r="E100" s="1">
@@ -5244,7 +5359,7 @@
         <v>43544</v>
       </c>
       <c r="D101" s="15">
-        <f>C101+E101</f>
+        <f t="shared" si="1"/>
         <v>43551</v>
       </c>
       <c r="E101" s="1">
@@ -5265,7 +5380,7 @@
         <v>43544</v>
       </c>
       <c r="D102" s="15">
-        <f>C102+E102</f>
+        <f t="shared" si="1"/>
         <v>43545</v>
       </c>
       <c r="E102" s="1">
@@ -5286,7 +5401,7 @@
         <v>43544</v>
       </c>
       <c r="D103" s="15">
-        <f>C103+E103</f>
+        <f t="shared" si="1"/>
         <v>43545</v>
       </c>
       <c r="E103" s="11">
@@ -5307,7 +5422,7 @@
         <v>43544</v>
       </c>
       <c r="D104" s="15">
-        <f>C104+E104</f>
+        <f t="shared" si="1"/>
         <v>43544</v>
       </c>
       <c r="E104" s="1"/>
@@ -5326,7 +5441,7 @@
         <v>43544</v>
       </c>
       <c r="D105" s="15">
-        <f>C105+E105</f>
+        <f t="shared" si="1"/>
         <v>43544</v>
       </c>
       <c r="E105" s="1"/>
@@ -5345,7 +5460,7 @@
         <v>43544</v>
       </c>
       <c r="D106" s="15">
-        <f>C106+E106</f>
+        <f t="shared" si="1"/>
         <v>43551</v>
       </c>
       <c r="E106" s="1">
@@ -5366,7 +5481,7 @@
         <v>43551</v>
       </c>
       <c r="D107" s="15">
-        <f>C107+E107</f>
+        <f t="shared" si="1"/>
         <v>43552</v>
       </c>
       <c r="E107" s="1">
@@ -5387,7 +5502,7 @@
         <v>43551</v>
       </c>
       <c r="D108" s="15">
-        <f>C108+E108</f>
+        <f t="shared" si="1"/>
         <v>43552</v>
       </c>
       <c r="E108" s="1">
@@ -5408,7 +5523,7 @@
         <v>43551</v>
       </c>
       <c r="D109" s="15">
-        <f>C109+E109</f>
+        <f t="shared" si="1"/>
         <v>43552</v>
       </c>
       <c r="E109" s="1">
@@ -5429,7 +5544,7 @@
         <v>43551</v>
       </c>
       <c r="D110" s="15">
-        <f>C110+E110</f>
+        <f t="shared" si="1"/>
         <v>43564</v>
       </c>
       <c r="E110" s="1">
@@ -5450,7 +5565,7 @@
         <v>43551</v>
       </c>
       <c r="D111" s="15">
-        <f>C111+E111</f>
+        <f t="shared" si="1"/>
         <v>43552</v>
       </c>
       <c r="E111" s="1">
@@ -5471,7 +5586,7 @@
         <v>43551</v>
       </c>
       <c r="D112" s="15">
-        <f>C112+E112</f>
+        <f t="shared" si="1"/>
         <v>43552</v>
       </c>
       <c r="E112" s="1">
@@ -5492,7 +5607,7 @@
         <v>43551</v>
       </c>
       <c r="D113" s="15">
-        <f>C113+E113</f>
+        <f t="shared" si="1"/>
         <v>43552</v>
       </c>
       <c r="E113" s="1">
@@ -5513,7 +5628,7 @@
         <v>43551</v>
       </c>
       <c r="D114" s="15">
-        <f>C114+E114</f>
+        <f t="shared" si="1"/>
         <v>43552</v>
       </c>
       <c r="E114" s="1">
@@ -5534,7 +5649,7 @@
         <v>43551</v>
       </c>
       <c r="D115" s="15">
-        <f>C115+E115</f>
+        <f t="shared" si="1"/>
         <v>43552</v>
       </c>
       <c r="E115" s="1">
@@ -5555,7 +5670,7 @@
         <v>43551</v>
       </c>
       <c r="D116" s="15">
-        <f>C116+E116</f>
+        <f t="shared" si="1"/>
         <v>43565</v>
       </c>
       <c r="E116" s="11">
@@ -5576,7 +5691,7 @@
         <v>43558</v>
       </c>
       <c r="D117" s="15">
-        <f>C117+E117</f>
+        <f t="shared" si="1"/>
         <v>43571</v>
       </c>
       <c r="E117" s="1">
@@ -5597,7 +5712,7 @@
         <v>43558</v>
       </c>
       <c r="D118" s="15">
-        <f>C118+E118</f>
+        <f t="shared" si="1"/>
         <v>43559</v>
       </c>
       <c r="E118" s="1">
@@ -5618,7 +5733,7 @@
         <v>43558</v>
       </c>
       <c r="D119" s="15">
-        <f>C119+E119</f>
+        <f t="shared" si="1"/>
         <v>43559</v>
       </c>
       <c r="E119" s="1">
@@ -5639,7 +5754,7 @@
         <v>43558</v>
       </c>
       <c r="D120" s="15">
-        <f>C120+E120</f>
+        <f t="shared" si="1"/>
         <v>43559</v>
       </c>
       <c r="E120" s="1">
@@ -5660,7 +5775,7 @@
         <v>43558</v>
       </c>
       <c r="D121" s="15">
-        <f>C121+E121</f>
+        <f t="shared" si="1"/>
         <v>43559</v>
       </c>
       <c r="E121" s="1">
@@ -5681,7 +5796,7 @@
         <v>43558</v>
       </c>
       <c r="D122" s="15">
-        <f>C122+E122</f>
+        <f t="shared" si="1"/>
         <v>43572</v>
       </c>
       <c r="E122" s="1">
@@ -5702,7 +5817,7 @@
         <v>43558</v>
       </c>
       <c r="D123" s="15">
-        <f>C123+E123</f>
+        <f t="shared" si="1"/>
         <v>43559</v>
       </c>
       <c r="E123" s="1">
@@ -5723,7 +5838,7 @@
         <v>43558</v>
       </c>
       <c r="D124" s="15">
-        <f>C124+E124</f>
+        <f t="shared" si="1"/>
         <v>43572</v>
       </c>
       <c r="E124" s="1">
@@ -5744,7 +5859,7 @@
         <v>43558</v>
       </c>
       <c r="D125" s="15">
-        <f>C125+E125</f>
+        <f t="shared" si="1"/>
         <v>43572</v>
       </c>
       <c r="E125" s="1">
@@ -5765,7 +5880,7 @@
         <v>43558</v>
       </c>
       <c r="D126" s="15">
-        <f>C126+E126</f>
+        <f t="shared" si="1"/>
         <v>43565</v>
       </c>
       <c r="E126" s="1">
@@ -5786,7 +5901,7 @@
         <v>43558</v>
       </c>
       <c r="D127" s="15">
-        <f>C127+E127</f>
+        <f t="shared" si="1"/>
         <v>43565</v>
       </c>
       <c r="E127" s="1">
@@ -5807,7 +5922,7 @@
         <v>43565</v>
       </c>
       <c r="D128" s="15">
-        <f>C128+E128</f>
+        <f t="shared" si="1"/>
         <v>43579</v>
       </c>
       <c r="E128" s="1">
@@ -5828,7 +5943,7 @@
         <v>43565</v>
       </c>
       <c r="D129" s="15">
-        <f>C129+E129</f>
+        <f t="shared" si="1"/>
         <v>43579</v>
       </c>
       <c r="E129" s="1">
@@ -5849,7 +5964,7 @@
         <v>43565</v>
       </c>
       <c r="D130" s="15">
-        <f>C130+E130</f>
+        <f t="shared" si="1"/>
         <v>43566</v>
       </c>
       <c r="E130" s="1">
@@ -5870,7 +5985,7 @@
         <v>43565</v>
       </c>
       <c r="D131" s="15">
-        <f>C131+E131</f>
+        <f t="shared" si="1"/>
         <v>43566</v>
       </c>
       <c r="E131" s="1">
@@ -5891,7 +6006,7 @@
         <v>43565</v>
       </c>
       <c r="D132" s="15">
-        <f>C132+E132</f>
+        <f t="shared" si="1"/>
         <v>43566</v>
       </c>
       <c r="E132" s="1">
@@ -5913,7 +6028,7 @@
         <v>43565</v>
       </c>
       <c r="D133" s="15">
-        <f>C133+E133</f>
+        <f t="shared" si="1"/>
         <v>43572</v>
       </c>
       <c r="E133" s="1">
@@ -5937,7 +6052,7 @@
         <v>43565</v>
       </c>
       <c r="D134" s="15">
-        <f>C134+E134</f>
+        <f t="shared" si="1"/>
         <v>43572</v>
       </c>
       <c r="E134" s="1">
@@ -5961,7 +6076,7 @@
         <v>43565</v>
       </c>
       <c r="D135" s="15">
-        <f>C135+E135</f>
+        <f t="shared" ref="D135:D198" si="2">C135+E135</f>
         <v>43566</v>
       </c>
       <c r="E135" s="1">
@@ -5985,7 +6100,7 @@
         <v>43565</v>
       </c>
       <c r="D136" s="15">
-        <f>C136+E136</f>
+        <f t="shared" si="2"/>
         <v>43566</v>
       </c>
       <c r="E136" s="11">
@@ -6009,7 +6124,7 @@
         <v>43565</v>
       </c>
       <c r="D137" s="15">
-        <f>C137+E137</f>
+        <f t="shared" si="2"/>
         <v>43572</v>
       </c>
       <c r="E137" s="1">
@@ -6034,7 +6149,7 @@
         <v>43565</v>
       </c>
       <c r="D138" s="15">
-        <f>C138+E138</f>
+        <f t="shared" si="2"/>
         <v>43566</v>
       </c>
       <c r="E138" s="1">
@@ -6059,7 +6174,7 @@
         <v>43572</v>
       </c>
       <c r="D139" s="15">
-        <f>C139+E139</f>
+        <f t="shared" si="2"/>
         <v>43573</v>
       </c>
       <c r="E139" s="1">
@@ -6084,7 +6199,7 @@
         <v>43572</v>
       </c>
       <c r="D140" s="15">
-        <f>C140+E140</f>
+        <f t="shared" si="2"/>
         <v>43573</v>
       </c>
       <c r="E140" s="1">
@@ -6109,7 +6224,7 @@
         <v>43572</v>
       </c>
       <c r="D141" s="15">
-        <f>C141+E141</f>
+        <f t="shared" si="2"/>
         <v>43585</v>
       </c>
       <c r="E141" s="1">
@@ -6134,7 +6249,7 @@
         <v>43572</v>
       </c>
       <c r="D142" s="15">
-        <f>C142+E142</f>
+        <f t="shared" si="2"/>
         <v>43573</v>
       </c>
       <c r="E142" s="1">
@@ -6159,7 +6274,7 @@
         <v>43572</v>
       </c>
       <c r="D143" s="15">
-        <f>C143+E143</f>
+        <f t="shared" si="2"/>
         <v>43573</v>
       </c>
       <c r="E143" s="1">
@@ -6184,7 +6299,7 @@
         <v>43572</v>
       </c>
       <c r="D144" s="15">
-        <f>C144+E144</f>
+        <f t="shared" si="2"/>
         <v>43573</v>
       </c>
       <c r="E144" s="1">
@@ -6209,7 +6324,7 @@
         <v>43572</v>
       </c>
       <c r="D145" s="15">
-        <f>C145+E145</f>
+        <f t="shared" si="2"/>
         <v>43573</v>
       </c>
       <c r="E145" s="1">
@@ -6234,7 +6349,7 @@
         <v>43572</v>
       </c>
       <c r="D146" s="15">
-        <f>C146+E146</f>
+        <f t="shared" si="2"/>
         <v>43573</v>
       </c>
       <c r="E146" s="1">
@@ -6259,7 +6374,7 @@
         <v>43572</v>
       </c>
       <c r="D147" s="15">
-        <f>C147+E147</f>
+        <f t="shared" si="2"/>
         <v>43586</v>
       </c>
       <c r="E147" s="11">
@@ -6284,7 +6399,7 @@
         <v>43572</v>
       </c>
       <c r="D148" s="15">
-        <f>C148+E148</f>
+        <f t="shared" si="2"/>
         <v>43585</v>
       </c>
       <c r="E148" s="1">
@@ -6309,7 +6424,7 @@
         <v>43579</v>
       </c>
       <c r="D149" s="21">
-        <f>C149+E149</f>
+        <f t="shared" si="2"/>
         <v>43580</v>
       </c>
       <c r="E149" s="1">
@@ -6334,7 +6449,7 @@
         <v>43579</v>
       </c>
       <c r="D150" s="21">
-        <f>C150+E150</f>
+        <f t="shared" si="2"/>
         <v>43580</v>
       </c>
       <c r="E150" s="1">
@@ -6357,7 +6472,7 @@
         <v>43579</v>
       </c>
       <c r="D151" s="21">
-        <f>C151+E151</f>
+        <f t="shared" si="2"/>
         <v>43580</v>
       </c>
       <c r="E151" s="1">
@@ -6382,7 +6497,7 @@
         <v>43579</v>
       </c>
       <c r="D152" s="21">
-        <f>C152+E152</f>
+        <f t="shared" si="2"/>
         <v>43580</v>
       </c>
       <c r="E152" s="1">
@@ -6407,7 +6522,7 @@
         <v>43579</v>
       </c>
       <c r="D153" s="21">
-        <f>C153+E153</f>
+        <f t="shared" si="2"/>
         <v>43593</v>
       </c>
       <c r="E153" s="1">
@@ -6432,7 +6547,7 @@
         <v>43579</v>
       </c>
       <c r="D154" s="21">
-        <f>C154+E154</f>
+        <f t="shared" si="2"/>
         <v>43580</v>
       </c>
       <c r="E154" s="1">
@@ -6457,7 +6572,7 @@
         <v>43579</v>
       </c>
       <c r="D155" s="21">
-        <f>C155+E155</f>
+        <f t="shared" si="2"/>
         <v>43593</v>
       </c>
       <c r="E155" s="1">
@@ -6482,7 +6597,7 @@
         <v>43579</v>
       </c>
       <c r="D156" s="21">
-        <f>C156+E156</f>
+        <f t="shared" si="2"/>
         <v>43593</v>
       </c>
       <c r="E156" s="1">
@@ -6507,7 +6622,7 @@
         <v>43579</v>
       </c>
       <c r="D157" s="21">
-        <f>C157+E157</f>
+        <f t="shared" si="2"/>
         <v>43586</v>
       </c>
       <c r="E157" s="1">
@@ -6532,7 +6647,7 @@
         <v>43579</v>
       </c>
       <c r="D158" s="21">
-        <f>C158+E158</f>
+        <f t="shared" si="2"/>
         <v>43586</v>
       </c>
       <c r="E158" s="1">
@@ -6557,7 +6672,7 @@
         <v>43579</v>
       </c>
       <c r="D159" s="21">
-        <f>C159+E159</f>
+        <f t="shared" si="2"/>
         <v>43593</v>
       </c>
       <c r="E159" s="1">
@@ -6582,7 +6697,7 @@
         <v>43593</v>
       </c>
       <c r="D160" s="15">
-        <f>C160+E160</f>
+        <f t="shared" si="2"/>
         <v>43607</v>
       </c>
       <c r="E160" s="1">
@@ -6607,7 +6722,7 @@
         <v>43593</v>
       </c>
       <c r="D161" s="15">
-        <f>C161+E161</f>
+        <f t="shared" si="2"/>
         <v>43594</v>
       </c>
       <c r="E161" s="1">
@@ -6632,7 +6747,7 @@
         <v>43593</v>
       </c>
       <c r="D162" s="15">
-        <f>C162+E162</f>
+        <f t="shared" si="2"/>
         <v>43594</v>
       </c>
       <c r="E162" s="1">
@@ -6657,7 +6772,7 @@
         <v>43593</v>
       </c>
       <c r="D163" s="15">
-        <f>C163+E163</f>
+        <f t="shared" si="2"/>
         <v>43594</v>
       </c>
       <c r="E163" s="1">
@@ -6680,7 +6795,7 @@
         <v>43593</v>
       </c>
       <c r="D164" s="15">
-        <f>C164+E164</f>
+        <f t="shared" si="2"/>
         <v>43600</v>
       </c>
       <c r="E164" s="1">
@@ -6703,7 +6818,7 @@
         <v>43593</v>
       </c>
       <c r="D165" s="15">
-        <f>C165+E165</f>
+        <f t="shared" si="2"/>
         <v>43600</v>
       </c>
       <c r="E165" s="1">
@@ -6725,7 +6840,7 @@
         <v>43600</v>
       </c>
       <c r="D166" s="15">
-        <f>C166+E166</f>
+        <f t="shared" si="2"/>
         <v>43601</v>
       </c>
       <c r="E166" s="1">
@@ -6747,7 +6862,7 @@
         <v>43600</v>
       </c>
       <c r="D167" s="15">
-        <f>C167+E167</f>
+        <f t="shared" si="2"/>
         <v>43601</v>
       </c>
       <c r="E167" s="11">
@@ -6769,7 +6884,7 @@
         <v>43600</v>
       </c>
       <c r="D168" s="15">
-        <f>C168+E168</f>
+        <f t="shared" si="2"/>
         <v>43608</v>
       </c>
       <c r="E168">
@@ -6790,7 +6905,7 @@
         <v>43600</v>
       </c>
       <c r="D169" s="15">
-        <f>C169+E169</f>
+        <f t="shared" si="2"/>
         <v>43602</v>
       </c>
       <c r="E169">
@@ -6811,7 +6926,7 @@
         <v>43600</v>
       </c>
       <c r="D170" s="15">
-        <f>C170+E170</f>
+        <f t="shared" si="2"/>
         <v>43602</v>
       </c>
       <c r="E170">
@@ -6832,7 +6947,7 @@
         <v>43600</v>
       </c>
       <c r="D171" s="15">
-        <f>C171+E171</f>
+        <f t="shared" si="2"/>
         <v>43614</v>
       </c>
       <c r="E171">
@@ -6853,7 +6968,7 @@
         <v>43600</v>
       </c>
       <c r="D172" s="15">
-        <f>C172+E172</f>
+        <f t="shared" si="2"/>
         <v>43614</v>
       </c>
       <c r="E172">
@@ -6874,7 +6989,7 @@
         <v>43600</v>
       </c>
       <c r="D173" s="15">
-        <f>C173+E173</f>
+        <f t="shared" si="2"/>
         <v>43602</v>
       </c>
       <c r="E173">
@@ -6895,7 +7010,7 @@
         <v>43600</v>
       </c>
       <c r="D174" s="15">
-        <f>C174+E174</f>
+        <f t="shared" si="2"/>
         <v>43602</v>
       </c>
       <c r="E174">
@@ -6916,7 +7031,7 @@
         <v>43607</v>
       </c>
       <c r="D175" s="23">
-        <f>C175+E175</f>
+        <f t="shared" si="2"/>
         <v>43609</v>
       </c>
       <c r="E175">
@@ -6937,7 +7052,7 @@
         <v>43607</v>
       </c>
       <c r="D176" s="23">
-        <f>C176+E176</f>
+        <f t="shared" si="2"/>
         <v>43609</v>
       </c>
       <c r="E176">
@@ -6958,7 +7073,7 @@
         <v>43607</v>
       </c>
       <c r="D177" s="23">
-        <f>C177+E177</f>
+        <f t="shared" si="2"/>
         <v>43622</v>
       </c>
       <c r="E177">
@@ -6979,7 +7094,7 @@
         <v>43607</v>
       </c>
       <c r="D178" s="23">
-        <f>C178+E178</f>
+        <f t="shared" si="2"/>
         <v>43634</v>
       </c>
       <c r="E178">
@@ -7000,7 +7115,7 @@
         <v>43607</v>
       </c>
       <c r="D179" s="23">
-        <f>C179+E179</f>
+        <f t="shared" si="2"/>
         <v>43621</v>
       </c>
       <c r="E179">
@@ -7021,7 +7136,7 @@
         <v>43607</v>
       </c>
       <c r="D180" s="23">
-        <f>C180+E180</f>
+        <f t="shared" si="2"/>
         <v>43609</v>
       </c>
       <c r="E180">
@@ -7042,7 +7157,7 @@
         <v>43607</v>
       </c>
       <c r="D181" s="23">
-        <f>C181+E181</f>
+        <f t="shared" si="2"/>
         <v>43609</v>
       </c>
       <c r="E181">
@@ -7063,7 +7178,7 @@
         <v>43607</v>
       </c>
       <c r="D182" s="23">
-        <f>C182+E182</f>
+        <f t="shared" si="2"/>
         <v>43609</v>
       </c>
       <c r="E182">
@@ -7084,7 +7199,7 @@
         <v>43614</v>
       </c>
       <c r="D183" s="23">
-        <f>C183+E183</f>
+        <f t="shared" si="2"/>
         <v>43629</v>
       </c>
       <c r="E183">
@@ -7105,7 +7220,7 @@
         <v>43614</v>
       </c>
       <c r="D184" s="23">
-        <f>C184+E184</f>
+        <f t="shared" si="2"/>
         <v>43629</v>
       </c>
       <c r="E184">
@@ -7126,7 +7241,7 @@
         <v>43614</v>
       </c>
       <c r="D185" s="23">
-        <f>C185+E185</f>
+        <f t="shared" si="2"/>
         <v>43629</v>
       </c>
       <c r="E185">
@@ -7147,7 +7262,7 @@
         <v>43614</v>
       </c>
       <c r="D186" s="23">
-        <f>C186+E186</f>
+        <f t="shared" si="2"/>
         <v>43642</v>
       </c>
       <c r="E186">
@@ -7168,7 +7283,7 @@
         <v>43614</v>
       </c>
       <c r="D187" s="23">
-        <f>C187+E187</f>
+        <f t="shared" si="2"/>
         <v>43635</v>
       </c>
       <c r="E187">
@@ -7189,7 +7304,7 @@
         <v>43614</v>
       </c>
       <c r="D188" s="23">
-        <f>C188+E188</f>
+        <f t="shared" si="2"/>
         <v>43628</v>
       </c>
       <c r="E188">
@@ -7210,7 +7325,7 @@
         <v>43614</v>
       </c>
       <c r="D189" s="23">
-        <f>C189+E189</f>
+        <f t="shared" si="2"/>
         <v>43635</v>
       </c>
       <c r="E189">
@@ -7231,7 +7346,7 @@
         <v>43614</v>
       </c>
       <c r="D190" s="23">
-        <f>C190+E190</f>
+        <f t="shared" si="2"/>
         <v>43642</v>
       </c>
       <c r="E190">
@@ -7252,7 +7367,7 @@
         <v>43621</v>
       </c>
       <c r="D191" s="23">
-        <f>C191+E191</f>
+        <f t="shared" si="2"/>
         <v>43636</v>
       </c>
       <c r="E191">
@@ -7273,7 +7388,7 @@
         <v>43621</v>
       </c>
       <c r="D192" s="23">
-        <f>C192+E192</f>
+        <f t="shared" si="2"/>
         <v>43623</v>
       </c>
       <c r="E192">
@@ -7294,7 +7409,7 @@
         <v>43621</v>
       </c>
       <c r="D193" s="23">
-        <f>C193+E193</f>
+        <f t="shared" si="2"/>
         <v>43623</v>
       </c>
       <c r="E193">
@@ -7315,7 +7430,7 @@
         <v>43621</v>
       </c>
       <c r="D194" s="23">
-        <f>C194+E194</f>
+        <f t="shared" si="2"/>
         <v>43629</v>
       </c>
       <c r="E194">
@@ -7336,7 +7451,7 @@
         <v>43621</v>
       </c>
       <c r="D195" s="23">
-        <f>C195+E195</f>
+        <f t="shared" si="2"/>
         <v>43635</v>
       </c>
       <c r="E195">
@@ -7357,7 +7472,7 @@
         <v>43621</v>
       </c>
       <c r="D196" s="23">
-        <f>C196+E196</f>
+        <f t="shared" si="2"/>
         <v>43629</v>
       </c>
       <c r="E196">
@@ -7378,7 +7493,7 @@
         <v>43621</v>
       </c>
       <c r="D197" s="23">
-        <f>C197+E197</f>
+        <f t="shared" si="2"/>
         <v>43623</v>
       </c>
       <c r="E197">
@@ -7399,7 +7514,7 @@
         <v>43621</v>
       </c>
       <c r="D198" s="23">
-        <f>C198+E198</f>
+        <f t="shared" si="2"/>
         <v>43622</v>
       </c>
       <c r="E198">
@@ -7420,7 +7535,7 @@
         <v>43628</v>
       </c>
       <c r="D199" s="23">
-        <f>C199+E199</f>
+        <f t="shared" ref="D199:D262" si="3">C199+E199</f>
         <v>43641</v>
       </c>
       <c r="E199">
@@ -7441,7 +7556,7 @@
         <v>43628</v>
       </c>
       <c r="D200" s="23">
-        <f>C200+E200</f>
+        <f t="shared" si="3"/>
         <v>43629</v>
       </c>
       <c r="E200">
@@ -7462,7 +7577,7 @@
         <v>43628</v>
       </c>
       <c r="D201" s="23">
-        <f>C201+E201</f>
+        <f t="shared" si="3"/>
         <v>43629</v>
       </c>
       <c r="E201">
@@ -7483,7 +7598,7 @@
         <v>43628</v>
       </c>
       <c r="D202" s="23">
-        <f>C202+E202</f>
+        <f t="shared" si="3"/>
         <v>43653</v>
       </c>
       <c r="E202">
@@ -7504,7 +7619,7 @@
         <v>43628</v>
       </c>
       <c r="D203" s="23">
-        <f>C203+E203</f>
+        <f t="shared" si="3"/>
         <v>43653</v>
       </c>
       <c r="E203">
@@ -7525,7 +7640,7 @@
         <v>43628</v>
       </c>
       <c r="D204" s="23">
-        <f>C204+E204</f>
+        <f t="shared" si="3"/>
         <v>43629</v>
       </c>
       <c r="E204">
@@ -7546,7 +7661,7 @@
         <v>43628</v>
       </c>
       <c r="D205" s="23">
-        <f>C205+E205</f>
+        <f t="shared" si="3"/>
         <v>43629</v>
       </c>
       <c r="E205">
@@ -7556,7 +7671,7 @@
         <v>19</v>
       </c>
       <c r="H205" s="58" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7570,7 +7685,7 @@
         <v>43635</v>
       </c>
       <c r="D206" s="23">
-        <f>C206+E206</f>
+        <f t="shared" si="3"/>
         <v>43636</v>
       </c>
       <c r="E206">
@@ -7591,7 +7706,7 @@
         <v>43635</v>
       </c>
       <c r="D207" s="23">
-        <f>C207+E207</f>
+        <f t="shared" si="3"/>
         <v>43636</v>
       </c>
       <c r="E207">
@@ -7601,7 +7716,7 @@
         <v>5</v>
       </c>
       <c r="H207" s="58" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
@@ -7615,7 +7730,7 @@
         <v>43642</v>
       </c>
       <c r="D208" s="23">
-        <f>C208+E208</f>
+        <f t="shared" si="3"/>
         <v>43669</v>
       </c>
       <c r="E208">
@@ -7636,7 +7751,7 @@
         <v>43642</v>
       </c>
       <c r="D209" s="23">
-        <f>C209+E209</f>
+        <f t="shared" si="3"/>
         <v>43693</v>
       </c>
       <c r="E209">
@@ -7657,7 +7772,7 @@
         <v>43642</v>
       </c>
       <c r="D210" s="23">
-        <f>C210+E210</f>
+        <f t="shared" si="3"/>
         <v>43667</v>
       </c>
       <c r="E210">
@@ -7678,7 +7793,7 @@
         <v>43642</v>
       </c>
       <c r="D211" s="23">
-        <f>C211+E211</f>
+        <f t="shared" si="3"/>
         <v>43643</v>
       </c>
       <c r="E211">
@@ -7699,7 +7814,7 @@
         <v>43642</v>
       </c>
       <c r="D212" s="23">
-        <f>C212+E212</f>
+        <f t="shared" si="3"/>
         <v>43643</v>
       </c>
       <c r="E212">
@@ -7720,7 +7835,7 @@
         <v>43642</v>
       </c>
       <c r="D213" s="23">
-        <f>C213+E213</f>
+        <f t="shared" si="3"/>
         <v>43643</v>
       </c>
       <c r="E213">
@@ -7730,7 +7845,7 @@
         <v>5</v>
       </c>
       <c r="H213" s="58" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="18" x14ac:dyDescent="0.35">
@@ -7744,7 +7859,7 @@
         <v>43649</v>
       </c>
       <c r="D214" s="23">
-        <f>C214+E214</f>
+        <f t="shared" si="3"/>
         <v>43676</v>
       </c>
       <c r="E214">
@@ -7754,7 +7869,7 @@
         <v>10</v>
       </c>
       <c r="H214" s="59" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
@@ -7768,7 +7883,7 @@
         <v>43649</v>
       </c>
       <c r="D215" s="23">
-        <f>C215+E215</f>
+        <f t="shared" si="3"/>
         <v>43676</v>
       </c>
       <c r="E215">
@@ -7789,7 +7904,7 @@
         <v>43649</v>
       </c>
       <c r="D216" s="22">
-        <f>C216+E216</f>
+        <f t="shared" si="3"/>
         <v>43676</v>
       </c>
       <c r="E216">
@@ -7810,7 +7925,7 @@
         <v>43656</v>
       </c>
       <c r="D217" s="24">
-        <f>C217+E217</f>
+        <f t="shared" si="3"/>
         <v>43709</v>
       </c>
       <c r="E217">
@@ -7831,7 +7946,7 @@
         <v>43656</v>
       </c>
       <c r="D218" s="24">
-        <f>C218+E218</f>
+        <f t="shared" si="3"/>
         <v>43695</v>
       </c>
       <c r="E218">
@@ -7852,7 +7967,7 @@
         <v>43656</v>
       </c>
       <c r="D219" s="24">
-        <f>C219+E219</f>
+        <f t="shared" si="3"/>
         <v>43681</v>
       </c>
       <c r="E219">
@@ -7873,7 +7988,7 @@
         <v>43656</v>
       </c>
       <c r="D220" s="24">
-        <f>C220+E220</f>
+        <f t="shared" si="3"/>
         <v>43695</v>
       </c>
       <c r="E220">
@@ -7894,7 +8009,7 @@
         <v>43656</v>
       </c>
       <c r="D221" s="24">
-        <f>C221+E221</f>
+        <f t="shared" si="3"/>
         <v>43709</v>
       </c>
       <c r="E221">
@@ -7915,7 +8030,7 @@
         <v>43656</v>
       </c>
       <c r="D222" s="24">
-        <f>C222+E222</f>
+        <f t="shared" si="3"/>
         <v>43683</v>
       </c>
       <c r="E222">
@@ -7936,7 +8051,7 @@
         <v>43656</v>
       </c>
       <c r="D223" s="24">
-        <f>C223+E223</f>
+        <f t="shared" si="3"/>
         <v>43657</v>
       </c>
       <c r="E223">
@@ -7957,7 +8072,7 @@
         <v>43656</v>
       </c>
       <c r="D224" s="24">
-        <f>C224+E224</f>
+        <f t="shared" si="3"/>
         <v>43657</v>
       </c>
       <c r="E224">
@@ -7978,7 +8093,7 @@
         <v>43656</v>
       </c>
       <c r="D225" s="24">
-        <f>C225+E225</f>
+        <f t="shared" si="3"/>
         <v>43669</v>
       </c>
       <c r="E225">
@@ -7999,7 +8114,7 @@
         <v>43663</v>
       </c>
       <c r="D226" s="24">
-        <f>C226+E226</f>
+        <f t="shared" si="3"/>
         <v>43688</v>
       </c>
       <c r="E226">
@@ -8020,7 +8135,7 @@
         <v>43663</v>
       </c>
       <c r="D227" s="24">
-        <f>C227+E227</f>
+        <f t="shared" si="3"/>
         <v>43676</v>
       </c>
       <c r="E227">
@@ -8041,7 +8156,7 @@
         <v>43663</v>
       </c>
       <c r="D228" s="24">
-        <f>C228+E228</f>
+        <f t="shared" si="3"/>
         <v>43664</v>
       </c>
       <c r="E228">
@@ -8062,7 +8177,7 @@
         <v>43670</v>
       </c>
       <c r="D229" s="24">
-        <f>C229+E229</f>
+        <f t="shared" si="3"/>
         <v>43677</v>
       </c>
       <c r="E229">
@@ -8083,7 +8198,7 @@
         <v>43670</v>
       </c>
       <c r="D230" s="24">
-        <f>C230+E230</f>
+        <f t="shared" si="3"/>
         <v>43671</v>
       </c>
       <c r="E230">
@@ -8104,7 +8219,7 @@
         <v>43670</v>
       </c>
       <c r="D231" s="24">
-        <f>C231+E231</f>
+        <f t="shared" si="3"/>
         <v>43671</v>
       </c>
       <c r="E231">
@@ -8125,7 +8240,7 @@
         <v>43670</v>
       </c>
       <c r="D232" s="24">
-        <f>C232+E232</f>
+        <f t="shared" si="3"/>
         <v>43683</v>
       </c>
       <c r="E232">
@@ -8146,7 +8261,7 @@
         <v>43670</v>
       </c>
       <c r="D233" s="24">
-        <f>C233+E233</f>
+        <f t="shared" si="3"/>
         <v>43683</v>
       </c>
       <c r="E233">
@@ -8167,7 +8282,7 @@
         <v>43670</v>
       </c>
       <c r="D234" s="24">
-        <f>C234+E234</f>
+        <f t="shared" si="3"/>
         <v>43671</v>
       </c>
       <c r="E234">
@@ -8188,7 +8303,7 @@
         <v>43677</v>
       </c>
       <c r="D235" s="24">
-        <f>C235+E235</f>
+        <f t="shared" si="3"/>
         <v>43678</v>
       </c>
       <c r="E235">
@@ -8209,7 +8324,7 @@
         <v>43677</v>
       </c>
       <c r="D236" s="24">
-        <f>C236+E236</f>
+        <f t="shared" si="3"/>
         <v>43678</v>
       </c>
       <c r="E236">
@@ -8230,7 +8345,7 @@
         <v>43677</v>
       </c>
       <c r="D237" s="24">
-        <f>C237+E237</f>
+        <f t="shared" si="3"/>
         <v>43678</v>
       </c>
       <c r="E237">
@@ -8251,7 +8366,7 @@
         <v>43684</v>
       </c>
       <c r="D238" s="24">
-        <f>C238+E238</f>
+        <f t="shared" si="3"/>
         <v>43698</v>
       </c>
       <c r="E238">
@@ -8272,7 +8387,7 @@
         <v>43684</v>
       </c>
       <c r="D239" s="24">
-        <f>C239+E239</f>
+        <f t="shared" si="3"/>
         <v>43710</v>
       </c>
       <c r="E239">
@@ -8293,7 +8408,7 @@
         <v>43691</v>
       </c>
       <c r="D240" s="24">
-        <f>C240+E240</f>
+        <f t="shared" si="3"/>
         <v>43704</v>
       </c>
       <c r="E240">
@@ -8314,7 +8429,7 @@
         <v>43691</v>
       </c>
       <c r="D241" s="24">
-        <f>C241+E241</f>
+        <f t="shared" si="3"/>
         <v>43692</v>
       </c>
       <c r="E241">
@@ -8335,7 +8450,7 @@
         <v>43691</v>
       </c>
       <c r="D242" s="24">
-        <f>C242+E242</f>
+        <f t="shared" si="3"/>
         <v>43692</v>
       </c>
       <c r="E242">
@@ -8356,7 +8471,7 @@
         <v>43691</v>
       </c>
       <c r="D243" s="24">
-        <f>C243+E243</f>
+        <f t="shared" si="3"/>
         <v>43692</v>
       </c>
       <c r="E243">
@@ -8377,7 +8492,7 @@
         <v>43691</v>
       </c>
       <c r="D244" s="24">
-        <f>C244+E244</f>
+        <f t="shared" si="3"/>
         <v>43705</v>
       </c>
       <c r="E244">
@@ -8398,7 +8513,7 @@
         <v>43691</v>
       </c>
       <c r="D245" s="24">
-        <f>C245+E245</f>
+        <f t="shared" si="3"/>
         <v>43705</v>
       </c>
       <c r="E245">
@@ -8419,7 +8534,7 @@
         <v>43691</v>
       </c>
       <c r="D246" s="24">
-        <f>C246+E246</f>
+        <f t="shared" si="3"/>
         <v>43705</v>
       </c>
       <c r="E246">
@@ -8440,7 +8555,7 @@
         <v>43691</v>
       </c>
       <c r="D247" s="24">
-        <f>C247+E247</f>
+        <f t="shared" si="3"/>
         <v>43718</v>
       </c>
       <c r="E247">
@@ -8461,7 +8576,7 @@
         <v>43691</v>
       </c>
       <c r="D248" s="24">
-        <f>C248+E248</f>
+        <f t="shared" si="3"/>
         <v>43711</v>
       </c>
       <c r="E248">
@@ -8482,7 +8597,7 @@
         <v>43691</v>
       </c>
       <c r="D249" s="24">
-        <f>C249+E249</f>
+        <f t="shared" si="3"/>
         <v>43704</v>
       </c>
       <c r="E249">
@@ -8503,7 +8618,7 @@
         <v>43691</v>
       </c>
       <c r="D250" s="24">
-        <f>C250+E250</f>
+        <f t="shared" si="3"/>
         <v>43711</v>
       </c>
       <c r="E250">
@@ -8524,7 +8639,7 @@
         <v>43691</v>
       </c>
       <c r="D251" s="24">
-        <f>C251+E251</f>
+        <f t="shared" si="3"/>
         <v>43718</v>
       </c>
       <c r="E251">
@@ -8545,7 +8660,7 @@
         <v>43691</v>
       </c>
       <c r="D252" s="24">
-        <f>C252+E252</f>
+        <f t="shared" si="3"/>
         <v>43705</v>
       </c>
       <c r="E252">
@@ -8566,7 +8681,7 @@
         <v>43698</v>
       </c>
       <c r="D253" s="24">
-        <f>C253+E253</f>
+        <f t="shared" si="3"/>
         <v>43699</v>
       </c>
       <c r="E253">
@@ -8587,7 +8702,7 @@
         <v>43698</v>
       </c>
       <c r="D254" s="24">
-        <f>C254+E254</f>
+        <f t="shared" si="3"/>
         <v>43699</v>
       </c>
       <c r="E254">
@@ -8608,7 +8723,7 @@
         <v>43698</v>
       </c>
       <c r="D255" s="24">
-        <f>C255+E255</f>
+        <f t="shared" si="3"/>
         <v>43705</v>
       </c>
       <c r="E255">
@@ -8629,7 +8744,7 @@
         <v>43698</v>
       </c>
       <c r="D256" s="24">
-        <f>C256+E256</f>
+        <f t="shared" si="3"/>
         <v>43711</v>
       </c>
       <c r="E256">
@@ -8650,7 +8765,7 @@
         <v>43698</v>
       </c>
       <c r="D257" s="24">
-        <f>C257+E257</f>
+        <f t="shared" si="3"/>
         <v>43705</v>
       </c>
       <c r="E257">
@@ -8671,7 +8786,7 @@
         <v>43698</v>
       </c>
       <c r="D258" s="24">
-        <f>C258+E258</f>
+        <f t="shared" si="3"/>
         <v>43699</v>
       </c>
       <c r="E258">
@@ -8692,7 +8807,7 @@
         <v>43698</v>
       </c>
       <c r="D259" s="24">
-        <f>C259+E259</f>
+        <f t="shared" si="3"/>
         <v>43699</v>
       </c>
       <c r="E259" s="1">
@@ -8713,7 +8828,7 @@
         <v>43698</v>
       </c>
       <c r="D260" s="24">
-        <f>C260+E260</f>
+        <f t="shared" si="3"/>
         <v>43712</v>
       </c>
       <c r="E260" s="1">
@@ -8734,7 +8849,7 @@
         <v>43698</v>
       </c>
       <c r="D261" s="24">
-        <f>C261+E261</f>
+        <f t="shared" si="3"/>
         <v>43712</v>
       </c>
       <c r="E261" s="1">
@@ -8755,7 +8870,7 @@
         <v>43712</v>
       </c>
       <c r="D262" s="24">
-        <f>C262+E262</f>
+        <f t="shared" si="3"/>
         <v>43719</v>
       </c>
       <c r="E262" s="1">
@@ -8776,7 +8891,7 @@
         <v>43712</v>
       </c>
       <c r="D263" s="24">
-        <f>C263+E263</f>
+        <f t="shared" ref="D263:D326" si="4">C263+E263</f>
         <v>43719</v>
       </c>
       <c r="E263" s="1">
@@ -8797,7 +8912,7 @@
         <v>43712</v>
       </c>
       <c r="D264" s="24">
-        <f>C264+E264</f>
+        <f t="shared" si="4"/>
         <v>43726</v>
       </c>
       <c r="E264" s="1">
@@ -8818,7 +8933,7 @@
         <v>43712</v>
       </c>
       <c r="D265" s="24">
-        <f>C265+E265</f>
+        <f t="shared" si="4"/>
         <v>43726</v>
       </c>
       <c r="E265" s="1">
@@ -8839,7 +8954,7 @@
         <v>43719</v>
       </c>
       <c r="D266" s="25">
-        <f>C266+E266</f>
+        <f t="shared" si="4"/>
         <v>43720</v>
       </c>
       <c r="E266" s="1">
@@ -8860,7 +8975,7 @@
         <v>43719</v>
       </c>
       <c r="D267" s="25">
-        <f>C267+E267</f>
+        <f t="shared" si="4"/>
         <v>43720</v>
       </c>
       <c r="E267" s="1">
@@ -8881,7 +8996,7 @@
         <v>43719</v>
       </c>
       <c r="D268" s="25">
-        <f>C268+E268</f>
+        <f t="shared" si="4"/>
         <v>43720</v>
       </c>
       <c r="E268" s="1">
@@ -8904,7 +9019,7 @@
         <v>43719</v>
       </c>
       <c r="D269" s="25">
-        <f>C269+E269</f>
+        <f t="shared" si="4"/>
         <v>43726</v>
       </c>
       <c r="E269" s="1">
@@ -8927,7 +9042,7 @@
         <v>43719</v>
       </c>
       <c r="D270" s="25">
-        <f>C270+E270</f>
+        <f t="shared" si="4"/>
         <v>43726</v>
       </c>
       <c r="E270" s="1">
@@ -8950,7 +9065,7 @@
         <v>43719</v>
       </c>
       <c r="D271" s="25">
-        <f>C271+E271</f>
+        <f t="shared" si="4"/>
         <v>43720</v>
       </c>
       <c r="E271" s="1">
@@ -8973,7 +9088,7 @@
         <v>43719</v>
       </c>
       <c r="D272" s="25">
-        <f>C272+E272</f>
+        <f t="shared" si="4"/>
         <v>43720</v>
       </c>
       <c r="E272" s="11">
@@ -8996,7 +9111,7 @@
         <v>43719</v>
       </c>
       <c r="D273" s="25">
-        <f>C273+E273</f>
+        <f t="shared" si="4"/>
         <v>43727</v>
       </c>
       <c r="E273">
@@ -9019,7 +9134,7 @@
         <v>43719</v>
       </c>
       <c r="D274" s="25">
-        <f>C274+E274</f>
+        <f t="shared" si="4"/>
         <v>43721</v>
       </c>
       <c r="E274">
@@ -9041,7 +9156,7 @@
         <v>43719</v>
       </c>
       <c r="D275" s="25">
-        <f>C275+E275</f>
+        <f t="shared" si="4"/>
         <v>43721</v>
       </c>
       <c r="E275">
@@ -9063,7 +9178,7 @@
         <v>43719</v>
       </c>
       <c r="D276" s="25">
-        <f>C276+E276</f>
+        <f t="shared" si="4"/>
         <v>43733</v>
       </c>
       <c r="E276">
@@ -9085,7 +9200,7 @@
         <v>43719</v>
       </c>
       <c r="D277" s="25">
-        <f>C277+E277</f>
+        <f t="shared" si="4"/>
         <v>43733</v>
       </c>
       <c r="E277">
@@ -9107,7 +9222,7 @@
         <v>43719</v>
       </c>
       <c r="D278" s="25">
-        <f>C278+E278</f>
+        <f t="shared" si="4"/>
         <v>43721</v>
       </c>
       <c r="E278">
@@ -9129,7 +9244,7 @@
         <v>43726</v>
       </c>
       <c r="D279" s="26">
-        <f>C279+E279</f>
+        <f t="shared" si="4"/>
         <v>43728</v>
       </c>
       <c r="E279">
@@ -9151,7 +9266,7 @@
         <v>43726</v>
       </c>
       <c r="D280" s="26">
-        <f>C280+E280</f>
+        <f t="shared" si="4"/>
         <v>43728</v>
       </c>
       <c r="E280">
@@ -9173,7 +9288,7 @@
         <v>43726</v>
       </c>
       <c r="D281" s="26">
-        <f>C281+E281</f>
+        <f t="shared" si="4"/>
         <v>43728</v>
       </c>
       <c r="E281">
@@ -9195,7 +9310,7 @@
         <v>43726</v>
       </c>
       <c r="D282" s="26">
-        <f>C282+E282</f>
+        <f t="shared" si="4"/>
         <v>43741</v>
       </c>
       <c r="E282">
@@ -9216,7 +9331,7 @@
         <v>43726</v>
       </c>
       <c r="D283" s="26">
-        <f>C283+E283</f>
+        <f t="shared" si="4"/>
         <v>43729</v>
       </c>
       <c r="E283">
@@ -9237,7 +9352,7 @@
         <v>43726</v>
       </c>
       <c r="D284" s="26">
-        <f>C284+E284</f>
+        <f t="shared" si="4"/>
         <v>43742</v>
       </c>
       <c r="E284">
@@ -9258,7 +9373,7 @@
         <v>43726</v>
       </c>
       <c r="D285" s="26">
-        <f>C285+E285</f>
+        <f t="shared" si="4"/>
         <v>43742</v>
       </c>
       <c r="E285">
@@ -9279,7 +9394,7 @@
         <v>43726</v>
       </c>
       <c r="D286" s="26">
-        <f>C286+E286</f>
+        <f t="shared" si="4"/>
         <v>43735</v>
       </c>
       <c r="E286">
@@ -9300,7 +9415,7 @@
         <v>43733</v>
       </c>
       <c r="D287" s="27">
-        <f>C287+E287</f>
+        <f t="shared" si="4"/>
         <v>43742</v>
       </c>
       <c r="E287">
@@ -9321,7 +9436,7 @@
         <v>43733</v>
       </c>
       <c r="D288" s="27">
-        <f>C288+E288</f>
+        <f t="shared" si="4"/>
         <v>43749</v>
       </c>
       <c r="E288">
@@ -9342,7 +9457,7 @@
         <v>43733</v>
       </c>
       <c r="D289" s="27">
-        <f>C289+E289</f>
+        <f t="shared" si="4"/>
         <v>43749</v>
       </c>
       <c r="E289">
@@ -9363,7 +9478,7 @@
         <v>43733</v>
       </c>
       <c r="D290" s="27">
-        <f>C290+E290</f>
+        <f t="shared" si="4"/>
         <v>43736</v>
       </c>
       <c r="E290">
@@ -9384,7 +9499,7 @@
         <v>43733</v>
       </c>
       <c r="D291" s="27">
-        <f>C291+E291</f>
+        <f t="shared" si="4"/>
         <v>43736</v>
       </c>
       <c r="E291">
@@ -9405,7 +9520,7 @@
         <v>43733</v>
       </c>
       <c r="D292" s="27">
-        <f>C292+E292</f>
+        <f t="shared" si="4"/>
         <v>43736</v>
       </c>
       <c r="E292">
@@ -9426,7 +9541,7 @@
         <v>43733</v>
       </c>
       <c r="D293" s="27">
-        <f>C293+E293</f>
+        <f t="shared" si="4"/>
         <v>43742</v>
       </c>
       <c r="E293">
@@ -9447,7 +9562,7 @@
         <v>43733</v>
       </c>
       <c r="D294" s="27">
-        <f>C294+E294</f>
+        <f t="shared" si="4"/>
         <v>43742</v>
       </c>
       <c r="E294">
@@ -9468,7 +9583,7 @@
         <v>43733</v>
       </c>
       <c r="D295" s="27">
-        <f>C295+E295</f>
+        <f t="shared" si="4"/>
         <v>43736</v>
       </c>
       <c r="E295">
@@ -9489,7 +9604,7 @@
         <v>43740</v>
       </c>
       <c r="D296" s="27">
-        <f>C296+E296</f>
+        <f t="shared" si="4"/>
         <v>43743</v>
       </c>
       <c r="E296">
@@ -9510,7 +9625,7 @@
         <v>43740</v>
       </c>
       <c r="D297" s="27">
-        <f>C297+E297</f>
+        <f t="shared" si="4"/>
         <v>43750</v>
       </c>
       <c r="E297">
@@ -9531,7 +9646,7 @@
         <v>43740</v>
       </c>
       <c r="D298" s="27">
-        <f>C298+E298</f>
+        <f t="shared" si="4"/>
         <v>43744</v>
       </c>
       <c r="E298">
@@ -9552,7 +9667,7 @@
         <v>43740</v>
       </c>
       <c r="D299" s="27">
-        <f>C299+E299</f>
+        <f t="shared" si="4"/>
         <v>43744</v>
       </c>
       <c r="E299">
@@ -9573,7 +9688,7 @@
         <v>43740</v>
       </c>
       <c r="D300" s="27">
-        <f>C300+E300</f>
+        <f t="shared" si="4"/>
         <v>43756</v>
       </c>
       <c r="E300">
@@ -9594,7 +9709,7 @@
         <v>43740</v>
       </c>
       <c r="D301" s="27">
-        <f>C301+E301</f>
+        <f t="shared" si="4"/>
         <v>43756</v>
       </c>
       <c r="E301">
@@ -9615,7 +9730,7 @@
         <v>43740</v>
       </c>
       <c r="D302" s="27">
-        <f>C302+E302</f>
+        <f t="shared" si="4"/>
         <v>43744</v>
       </c>
       <c r="E302">
@@ -9636,7 +9751,7 @@
         <v>43747</v>
       </c>
       <c r="D303" s="27">
-        <f>C303+E303</f>
+        <f t="shared" si="4"/>
         <v>43751</v>
       </c>
       <c r="E303">
@@ -9657,7 +9772,7 @@
         <v>43747</v>
       </c>
       <c r="D304" s="27">
-        <f>C304+E304</f>
+        <f t="shared" si="4"/>
         <v>43751</v>
       </c>
       <c r="E304">
@@ -9678,7 +9793,7 @@
         <v>43747</v>
       </c>
       <c r="D305" s="27">
-        <f>C305+E305</f>
+        <f t="shared" si="4"/>
         <v>43751</v>
       </c>
       <c r="E305">
@@ -9699,7 +9814,7 @@
         <v>43747</v>
       </c>
       <c r="D306" s="27">
-        <f>C306+E306</f>
+        <f t="shared" si="4"/>
         <v>43764</v>
       </c>
       <c r="E306">
@@ -9720,7 +9835,7 @@
         <v>43747</v>
       </c>
       <c r="D307" s="27">
-        <f>C307+E307</f>
+        <f t="shared" si="4"/>
         <v>43751</v>
       </c>
       <c r="E307">
@@ -9741,7 +9856,7 @@
         <v>43747</v>
       </c>
       <c r="D308" s="27">
-        <f>C308+E308</f>
+        <f t="shared" si="4"/>
         <v>43751</v>
       </c>
       <c r="E308">
@@ -9762,7 +9877,7 @@
         <v>43747</v>
       </c>
       <c r="D309" s="27">
-        <f>C309+E309</f>
+        <f t="shared" si="4"/>
         <v>43757</v>
       </c>
       <c r="E309">
@@ -9783,7 +9898,7 @@
         <v>43747</v>
       </c>
       <c r="D310" s="27">
-        <f>C310+E310</f>
+        <f t="shared" si="4"/>
         <v>43757</v>
       </c>
       <c r="E310">
@@ -9804,7 +9919,7 @@
         <v>43747</v>
       </c>
       <c r="D311" s="27">
-        <f>C311+E311</f>
+        <f t="shared" si="4"/>
         <v>43751</v>
       </c>
       <c r="E311">
@@ -9825,7 +9940,7 @@
         <v>43747</v>
       </c>
       <c r="D312" s="27">
-        <f>C312+E312</f>
+        <f t="shared" si="4"/>
         <v>43751</v>
       </c>
       <c r="E312">
@@ -9846,7 +9961,7 @@
         <v>43747</v>
       </c>
       <c r="D313" s="27">
-        <f>C313+E313</f>
+        <f t="shared" si="4"/>
         <v>43758</v>
       </c>
       <c r="E313">
@@ -9867,7 +9982,7 @@
         <v>43747</v>
       </c>
       <c r="D314" s="27">
-        <f>C314+E314</f>
+        <f t="shared" si="4"/>
         <v>43752</v>
       </c>
       <c r="E314">
@@ -9888,7 +10003,7 @@
         <v>43754</v>
       </c>
       <c r="D315" s="27">
-        <f>C315+E315</f>
+        <f t="shared" si="4"/>
         <v>43759</v>
       </c>
       <c r="E315">
@@ -9909,7 +10024,7 @@
         <v>43754</v>
       </c>
       <c r="D316" s="27">
-        <f>C316+E316</f>
+        <f t="shared" si="4"/>
         <v>43771</v>
       </c>
       <c r="E316">
@@ -9930,7 +10045,7 @@
         <v>43754</v>
       </c>
       <c r="D317" s="27">
-        <f>C317+E317</f>
+        <f t="shared" si="4"/>
         <v>43771</v>
       </c>
       <c r="E317">
@@ -9951,7 +10066,7 @@
         <v>43754</v>
       </c>
       <c r="D318" s="27">
-        <f>C318+E318</f>
+        <f t="shared" si="4"/>
         <v>43759</v>
       </c>
       <c r="E318">
@@ -9972,7 +10087,7 @@
         <v>43754</v>
       </c>
       <c r="D319" s="27">
-        <f>C319+E319</f>
+        <f t="shared" si="4"/>
         <v>43759</v>
       </c>
       <c r="E319">
@@ -9993,7 +10108,7 @@
         <v>43754</v>
       </c>
       <c r="D320" s="27">
-        <f>C320+E320</f>
+        <f t="shared" si="4"/>
         <v>43759</v>
       </c>
       <c r="E320">
@@ -10014,7 +10129,7 @@
         <v>43754</v>
       </c>
       <c r="D321" s="27">
-        <f>C321+E321</f>
+        <f t="shared" si="4"/>
         <v>43759</v>
       </c>
       <c r="E321">
@@ -10035,7 +10150,7 @@
         <v>43761</v>
       </c>
       <c r="D322" s="27">
-        <f>C322+E322</f>
+        <f t="shared" si="4"/>
         <v>43779</v>
       </c>
       <c r="E322">
@@ -10056,7 +10171,7 @@
         <v>43761</v>
       </c>
       <c r="D323" s="27">
-        <f>C323+E323</f>
+        <f t="shared" si="4"/>
         <v>43767</v>
       </c>
       <c r="E323">
@@ -10077,7 +10192,7 @@
         <v>43761</v>
       </c>
       <c r="D324" s="27">
-        <f>C324+E324</f>
+        <f t="shared" si="4"/>
         <v>43780</v>
       </c>
       <c r="E324">
@@ -10098,7 +10213,7 @@
         <v>43761</v>
       </c>
       <c r="D325" s="27">
-        <f>C325+E325</f>
+        <f t="shared" si="4"/>
         <v>43780</v>
       </c>
       <c r="E325">
@@ -10119,7 +10234,7 @@
         <v>43761</v>
       </c>
       <c r="D326" s="27">
-        <f>C326+E326</f>
+        <f t="shared" si="4"/>
         <v>43773</v>
       </c>
       <c r="E326">
@@ -10140,7 +10255,7 @@
         <v>43761</v>
       </c>
       <c r="D327" s="27">
-        <f>C327+E327</f>
+        <f t="shared" ref="D327:D344" si="5">C327+E327</f>
         <v>43773</v>
       </c>
       <c r="E327">
@@ -10161,7 +10276,7 @@
         <v>43768</v>
       </c>
       <c r="D328" s="27">
-        <f>C328+E328</f>
+        <f t="shared" si="5"/>
         <v>43787</v>
       </c>
       <c r="E328">
@@ -10182,7 +10297,7 @@
         <v>43768</v>
       </c>
       <c r="D329" s="27">
-        <f>C329+E329</f>
+        <f t="shared" si="5"/>
         <v>43787</v>
       </c>
       <c r="E329">
@@ -10203,7 +10318,7 @@
         <v>43768</v>
       </c>
       <c r="D330" s="27">
-        <f>C330+E330</f>
+        <f t="shared" si="5"/>
         <v>43774</v>
       </c>
       <c r="E330">
@@ -10224,7 +10339,7 @@
         <v>43768</v>
       </c>
       <c r="D331" s="27">
-        <f>C331+E331</f>
+        <f t="shared" si="5"/>
         <v>43774</v>
       </c>
       <c r="E331">
@@ -10245,7 +10360,7 @@
         <v>43768</v>
       </c>
       <c r="D332" s="27">
-        <f>C332+E332</f>
+        <f t="shared" si="5"/>
         <v>43771</v>
       </c>
       <c r="E332">
@@ -10266,7 +10381,7 @@
         <v>43768</v>
       </c>
       <c r="D333" s="27">
-        <f>C333+E333</f>
+        <f t="shared" si="5"/>
         <v>43784</v>
       </c>
       <c r="E333">
@@ -10287,7 +10402,7 @@
         <v>43768</v>
       </c>
       <c r="D334" s="27">
-        <f>C334+E334</f>
+        <f t="shared" si="5"/>
         <v>43784</v>
       </c>
       <c r="E334">
@@ -10308,7 +10423,7 @@
         <v>43768</v>
       </c>
       <c r="D335" s="27">
-        <f>C335+E335</f>
+        <f t="shared" si="5"/>
         <v>43777</v>
       </c>
       <c r="E335">
@@ -10329,7 +10444,7 @@
         <v>43775</v>
       </c>
       <c r="D336" s="27">
-        <f>C336+E336</f>
+        <f t="shared" si="5"/>
         <v>43784</v>
       </c>
       <c r="E336">
@@ -10350,7 +10465,7 @@
         <v>43775</v>
       </c>
       <c r="D337" s="27">
-        <f>C337+E337</f>
+        <f t="shared" si="5"/>
         <v>43791</v>
       </c>
       <c r="E337">
@@ -10371,7 +10486,7 @@
         <v>43775</v>
       </c>
       <c r="D338" s="27">
-        <f>C338+E338</f>
+        <f t="shared" si="5"/>
         <v>43791</v>
       </c>
       <c r="E338">
@@ -10392,7 +10507,7 @@
         <v>43775</v>
       </c>
       <c r="D339" s="27">
-        <f>C339+E339</f>
+        <f t="shared" si="5"/>
         <v>43778</v>
       </c>
       <c r="E339">
@@ -10413,7 +10528,7 @@
         <v>43775</v>
       </c>
       <c r="D340" s="27">
-        <f>C340+E340</f>
+        <f t="shared" si="5"/>
         <v>43778</v>
       </c>
       <c r="E340">
@@ -10434,7 +10549,7 @@
         <v>43775</v>
       </c>
       <c r="D341" s="27">
-        <f>C341+E341</f>
+        <f t="shared" si="5"/>
         <v>43778</v>
       </c>
       <c r="E341">
@@ -10455,7 +10570,7 @@
         <v>43775</v>
       </c>
       <c r="D342" s="27">
-        <f>C342+E342</f>
+        <f t="shared" si="5"/>
         <v>43784</v>
       </c>
       <c r="E342">
@@ -10476,7 +10591,7 @@
         <v>43775</v>
       </c>
       <c r="D343" s="27">
-        <f>C343+E343</f>
+        <f t="shared" si="5"/>
         <v>43784</v>
       </c>
       <c r="E343">
@@ -10497,7 +10612,7 @@
         <v>43775</v>
       </c>
       <c r="D344" s="27">
-        <f>C344+E344</f>
+        <f t="shared" si="5"/>
         <v>43778</v>
       </c>
       <c r="E344">
@@ -10582,9 +10697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8B9470-3608-4F76-86CC-DB352319ADB4}">
   <dimension ref="A1:D108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10596,16 +10709,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>685</v>
       </c>
       <c r="C1" s="46" t="s">
+        <v>686</v>
+      </c>
+      <c r="D1" s="46" t="s">
         <v>687</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -11860,10 +11973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018213A8-0903-4A01-88A3-4B38CBECC5E7}">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12043,7 +12156,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6">
         <v>11</v>
@@ -12072,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="H7">
         <v>12</v>
@@ -12130,7 +12243,7 @@
         <v>44</v>
       </c>
       <c r="G9">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>16</v>
@@ -12981,19 +13094,20 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="33"/>
     </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>693</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I39" xr:uid="{D1CF240A-F63C-473D-A921-E69B5EFFB4B2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13220,15 +13334,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4332B5FC-41B5-44A6-9B6C-5F62F00D52C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E05873F0-F9AE-46E0-B5DB-D9EA3BA62F30}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13253,10 +13371,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E05873F0-F9AE-46E0-B5DB-D9EA3BA62F30}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4332B5FC-41B5-44A6-9B6C-5F62F00D52C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>